--- a/my_file.xlsx
+++ b/my_file.xlsx
@@ -431,10 +431,10 @@
         <v>0</v>
       </c>
       <c r="C2" s="4">
-        <v>0.9</v>
+        <v>0.2</v>
       </c>
       <c r="D2" s="4">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
@@ -445,10 +445,10 @@
         <v>0.9</v>
       </c>
       <c r="C3" s="4">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="D3" s="4">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
@@ -459,7 +459,7 @@
         <v>4.5</v>
       </c>
       <c r="C4" s="4">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="D4" s="4">
         <v>0.1</v>
@@ -473,7 +473,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="4">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="D5" s="4">
         <v>0.1</v>
@@ -487,7 +487,7 @@
         <v>9</v>
       </c>
       <c r="C6" s="4">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="D6" s="4">
         <v>0.1</v>
